--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OrItzhaki\PycharmProjects\longitudinal_EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29693F-B718-43C0-9CFE-2A85285B9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB79839-FF3D-4510-A21C-96E55B18D195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB220F6C-5C2A-44CE-9960-6D458E60ABA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB220F6C-5C2A-44CE-9960-6D458E60ABA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1374">
   <si>
     <t>SubjectId</t>
   </si>
@@ -3935,9 +3935,6 @@
     <t>Received neither Mono/Combo/Chemo treatment. No second treatment.</t>
   </si>
   <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No first treatment. No second treatment.</t>
-  </si>
-  <si>
     <t>Mutation detected.</t>
   </si>
   <si>
@@ -3950,12 +3947,6 @@
     <t>Mutation detected. Received neither Mono/Combo/Chemo treatment.</t>
   </si>
   <si>
-    <t>No second treatment. No label.</t>
-  </si>
-  <si>
-    <t>No label.</t>
-  </si>
-  <si>
     <t>Blood collection too early (more than 1 month). No second treatment.</t>
   </si>
   <si>
@@ -3983,9 +3974,6 @@
     <t>Prior chemo ended 1 months or less before blood collection. No T0.</t>
   </si>
   <si>
-    <t>Mutation detected. No second treatment. ECOG &gt;= 3. No label.</t>
-  </si>
-  <si>
     <t>No T0.</t>
   </si>
   <si>
@@ -4001,9 +3989,6 @@
     <t>Received neither Mono/Combo/Chemo treatment. Prior immunotherapy. Not first line.</t>
   </si>
   <si>
-    <t>Blood collection too early (more than 1 month). No label.</t>
-  </si>
-  <si>
     <t>No second treatment. Unknown ECOG.</t>
   </si>
   <si>
@@ -4016,15 +4001,6 @@
     <t>Received neither Mono/Combo/Chemo treatment. No T0.</t>
   </si>
   <si>
-    <t>No second treatment. Prior immunotherapy. Not first line. No label.</t>
-  </si>
-  <si>
-    <t>Mutation detected. Received neither Mono/Combo/Chemo treatment. No second treatment. No label.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No second treatment. Stage is not 4 or 3. No label.</t>
-  </si>
-  <si>
     <t>Prior chemo ended 1 months or less before blood collection. Not first line.</t>
   </si>
   <si>
@@ -4034,24 +4010,9 @@
     <t>No second treatment. Not first line.</t>
   </si>
   <si>
-    <t>No label. No T0.</t>
-  </si>
-  <si>
     <t>Unknown ECOG. Prior immunotherapy. Not first line.</t>
   </si>
   <si>
-    <t>Not first line. No label.</t>
-  </si>
-  <si>
-    <t>Mutation detected. No second treatment. No label.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No label.</t>
-  </si>
-  <si>
-    <t>No first treatment. No second treatment.</t>
-  </si>
-  <si>
     <t>Mutation detected. No second treatment. Not first line.</t>
   </si>
   <si>
@@ -4085,42 +4046,21 @@
     <t>Prior chemo ended 1 months or less before blood collection. Blood collection too early (more than 1 month). No second treatment. Not first line.</t>
   </si>
   <si>
-    <t>Mutation detected. No label.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No second treatment. No label.</t>
-  </si>
-  <si>
     <t>Not first line. No T0.</t>
   </si>
   <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No first treatment. No second treatment. No T0.</t>
-  </si>
-  <si>
     <t>Blood collection too early (more than 1 month). ECOG &gt;= 3.</t>
   </si>
   <si>
-    <t>No first treatment. No second treatment. ECOG &gt;= 3.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No first treatment. No second treatment. Stage is not 4 or 3.</t>
-  </si>
-  <si>
     <t>Received neither Mono/Combo/Chemo treatment. Mutation detected.</t>
   </si>
   <si>
-    <t>Mutation detected. Received neither Mono/Combo/Chemo treatment. Not first line. No T0.</t>
-  </si>
-  <si>
     <t>Prior chemo ended 1 months or less before blood collection. Received neither Mono/Combo/Chemo treatment. Not first line.</t>
   </si>
   <si>
     <t>Received neither Mono/Combo/Chemo treatment. Blood collection too early (more than 1 month). No second treatment.</t>
   </si>
   <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No first treatment. No second treatment. Stage is not 4 or 3. Unknown treatment (CT).</t>
-  </si>
-  <si>
     <t>Mutation detected. Received neither Mono/Combo/Chemo treatment. Blood collection too early (more than 1 month).</t>
   </si>
   <si>
@@ -4133,39 +4073,12 @@
     <t>Blood collection too early (more than 1 month).</t>
   </si>
   <si>
-    <t>Unknown line. No label.</t>
-  </si>
-  <si>
-    <t>ECOG &gt;= 3. No label.</t>
-  </si>
-  <si>
-    <t>No second treatment. No consent. No label.</t>
-  </si>
-  <si>
-    <t>No first treatment. No second treatment. Unknown treatment (CT). No T0.</t>
-  </si>
-  <si>
     <t>Prior chemo ended 1 months or less before blood collection. No second treatment. No T0.</t>
   </si>
   <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No label. No T0.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No first treatment. No second treatment. Other malignancy. Stage is not 4 or 3.</t>
-  </si>
-  <si>
-    <t>Received neither Mono/Combo/Chemo treatment. No second treatment. Unknown ECOG. Other malignancy. Stage is not 4 or 3. No label.</t>
-  </si>
-  <si>
-    <t>No second treatment. Other malignancy. No label.</t>
-  </si>
-  <si>
     <t>Received neither Mono/Combo/Chemo treatment. No second treatment. Stage is not 4 or 3.</t>
   </si>
   <si>
-    <t>Mutation detected. Received neither Mono/Combo/Chemo treatment. No label.</t>
-  </si>
-  <si>
     <t>Mutation detected. Not first line. EGFR patient.</t>
   </si>
   <si>
@@ -4184,9 +4097,6 @@
     <t>Mutation detected. No second treatment. Not first line. EGFR patient.</t>
   </si>
   <si>
-    <t>No second treatment (Exclude by CF). No label.</t>
-  </si>
-  <si>
     <t>Mutation detected. Blood collection too early (more than 1 month). Not first line. EGFR patient.</t>
   </si>
   <si>
@@ -4196,10 +4106,58 @@
     <t>No second treatment (no clear response)</t>
   </si>
   <si>
-    <t>No second treatment (Include by CF).</t>
-  </si>
-  <si>
-    <t>No second treatment (Include by CF). No label.</t>
+    <t>No second treatment.</t>
+  </si>
+  <si>
+    <t>Mutation detected. No second treatment. ECOG &gt;= 3.</t>
+  </si>
+  <si>
+    <t>No first treatment date. No second treatment.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No second treatment.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No second treatment. No T0.</t>
+  </si>
+  <si>
+    <t>No first treatment date. No second treatment. ECOG &gt;= 3.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No second treatment. Stage is not 4 or 3.</t>
+  </si>
+  <si>
+    <t>Mutation detected. Received neither Mono/Combo/Chemo treatment. No first treatment date. Not first line. No T0.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No second treatment. Stage is not 4 or 3. Unknown treatment (CT).</t>
+  </si>
+  <si>
+    <t>No first treatment date. No T0.</t>
+  </si>
+  <si>
+    <t>No first treatment date.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No T0.</t>
+  </si>
+  <si>
+    <t>ECOG &gt;= 3.</t>
+  </si>
+  <si>
+    <t>No second treatment. No consent.</t>
+  </si>
+  <si>
+    <t>No first treatment date. No second treatment. Unknown treatment (CT). No T0.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No first treatment date. No second treatment. Other malignancy. Stage is not 4 or 3.</t>
+  </si>
+  <si>
+    <t>Received neither Mono/Combo/Chemo treatment. No second treatment. Unknown ECOG. Other malignancy. Stage is not 4 or 3.</t>
+  </si>
+  <si>
+    <t>No second treatment. Other malignancy.</t>
   </si>
 </sst>
 </file>
@@ -4667,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A784C3B-6D61-4D8E-81F0-910F52A9D28D}">
   <dimension ref="A1:B1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,17 +4667,13 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -4732,7 +4686,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4746,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4782,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +4808,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4828,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4836,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4844,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +4852,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4866,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +4928,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +4954,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +4980,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,7 +4988,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,7 +4996,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5004,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5018,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5026,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5040,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5048,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5056,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5070,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5078,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5138,7 +5092,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5146,7 +5100,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5138,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5146,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5154,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5174,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5258,7 +5212,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5266,7 +5220,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,7 +5228,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +5236,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5274,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1315</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5351,9 +5305,7 @@
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -5378,7 +5330,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5398,7 +5350,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5414,7 +5366,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5456,7 +5408,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5518,7 +5470,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -5526,7 +5478,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -5547,16 +5499,14 @@
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5550,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -5640,7 +5590,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5610,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1321</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -5674,7 +5624,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5682,7 +5632,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5678,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -5736,7 +5686,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5694,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5758,7 +5708,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,16 +5742,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -5830,7 +5778,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,16 +5792,14 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -5874,7 +5820,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -5882,7 +5828,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -5890,7 +5836,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5850,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5930,7 +5876,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5926,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -6030,7 +5976,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -6049,16 +5995,14 @@
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6028,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6044,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6072,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6080,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -6156,7 +6100,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6108,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6124,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1328</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -6202,7 +6146,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,9 +6375,7 @@
       <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B259" s="6"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
@@ -6464,7 +6406,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,7 +6414,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -6486,7 +6428,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,16 +6501,14 @@
       <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B279" s="6"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6528,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -6602,7 +6542,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -6610,7 +6550,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -6618,7 +6558,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -6626,7 +6566,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -6634,7 +6574,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -6642,7 +6582,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -6650,7 +6590,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -6658,7 +6598,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6624,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -6698,7 +6638,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -6706,7 +6646,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -6714,7 +6654,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6668,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6676,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -6762,7 +6702,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -6770,7 +6710,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -6778,7 +6718,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -6786,7 +6726,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -6794,7 +6734,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -6802,7 +6742,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -6810,7 +6750,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -6818,7 +6758,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -6826,7 +6766,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -6834,7 +6774,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -6842,7 +6782,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -6850,7 +6790,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -6858,7 +6798,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -6866,7 +6806,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -6874,7 +6814,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -6882,7 +6822,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -6890,7 +6830,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -6898,7 +6838,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6864,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,16 +6883,14 @@
       <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B331" s="6"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -6974,16 +6912,14 @@
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
@@ -7002,16 +6938,14 @@
         <v>338</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B340" s="5"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
@@ -7030,7 +6964,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -7050,7 +6984,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -7075,16 +7009,14 @@
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -7098,7 +7030,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -7106,7 +7038,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1335</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -7119,9 +7051,7 @@
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B356" s="5"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
@@ -7140,7 +7070,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7078,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7130,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -7222,7 +7152,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7166,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7174,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -7258,7 +7188,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,17 +7239,13 @@
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B384" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B384" s="5"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B385" s="6"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
@@ -7331,9 +7257,7 @@
       <c r="A387" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B387" s="6"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
@@ -7376,7 +7300,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,9 +7319,7 @@
       <c r="A397" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B397" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B397" s="6"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
@@ -7422,7 +7344,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7352,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -7438,7 +7360,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -7470,7 +7392,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -7478,7 +7400,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -7486,7 +7408,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -7494,7 +7416,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7424,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -7510,7 +7432,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7446,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7454,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7462,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7470,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7478,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7486,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7494,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7502,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7510,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7518,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7526,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7534,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -7626,7 +7548,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -7634,7 +7556,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -7642,7 +7564,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -7650,7 +7572,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -7658,7 +7580,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -7666,7 +7588,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -7674,7 +7596,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -7682,7 +7604,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -7696,31 +7618,27 @@
         <v>436</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B438" s="5"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B439" s="6"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -7728,7 +7646,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -7736,7 +7654,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -7752,7 +7670,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -7760,7 +7678,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -7768,7 +7686,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -7781,9 +7699,7 @@
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B448" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B448" s="5"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
@@ -7802,7 +7718,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -7810,7 +7726,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -7824,16 +7740,14 @@
         <v>453</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B455" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B455" s="6"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
@@ -7846,7 +7760,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -7854,7 +7768,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,7 +7782,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -7876,7 +7790,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7798,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +7812,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -7906,7 +7820,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -7914,7 +7828,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -7922,7 +7836,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -7936,7 +7850,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7870,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -7964,7 +7878,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,9 +7891,7 @@
       <c r="A475" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B475" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B475" s="6"/>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
@@ -7992,7 +7904,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -8036,7 +7948,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +7956,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -8076,7 +7988,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -8102,7 +8014,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -8110,7 +8022,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -8130,7 +8042,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -8138,7 +8050,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -8146,7 +8058,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -8154,7 +8066,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -8162,7 +8074,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -8170,7 +8082,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -8178,7 +8090,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -8186,7 +8098,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -8194,7 +8106,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -8202,7 +8114,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -8210,7 +8122,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -8218,7 +8130,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -8232,7 +8144,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -8246,7 +8158,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -8265,9 +8177,7 @@
       <c r="A516" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B516" s="5"/>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
@@ -8280,7 +8190,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -8288,7 +8198,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -8296,7 +8206,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -8322,7 +8232,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -8347,9 +8257,7 @@
       <c r="A528" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B528" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B528" s="5"/>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
@@ -8362,7 +8270,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +8290,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8298,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +8330,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -8435,16 +8343,14 @@
       <c r="A541" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B541" s="6"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -8452,7 +8358,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -8484,39 +8390,35 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B549" s="6"/>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B551" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B551" s="6"/>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -8530,7 +8432,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -8538,7 +8440,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -8582,7 +8484,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8516,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8524,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -8642,7 +8544,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -8656,16 +8558,14 @@
         <v>572</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B574" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B574" s="5"/>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
@@ -8683,9 +8583,7 @@
       <c r="A577" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B577" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B577" s="6"/>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
@@ -8710,7 +8608,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -8718,16 +8616,14 @@
         <v>581</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B583" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B583" s="6"/>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
@@ -8740,16 +8636,14 @@
         <v>584</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B586" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B586" s="5"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
@@ -8768,7 +8662,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -8781,16 +8675,14 @@
       <c r="A591" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B591" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B591" s="6"/>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -8804,7 +8696,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -8830,7 +8722,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -8838,7 +8730,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -8870,7 +8762,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -8883,9 +8775,7 @@
       <c r="A606" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B606" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B606" s="5"/>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
@@ -8916,7 +8806,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -8948,7 +8838,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -8956,7 +8846,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -8972,7 +8862,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -8980,7 +8870,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +8902,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -9056,7 +8946,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -9064,7 +8954,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -9077,9 +8967,7 @@
       <c r="A635" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B635" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B635" s="6"/>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
@@ -9091,9 +8979,7 @@
       <c r="A637" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B637" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B637" s="6"/>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
@@ -9112,7 +8998,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -9126,16 +9012,14 @@
         <v>641</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B643" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B643" s="6"/>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
@@ -9153,25 +9037,19 @@
       <c r="A646" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B646" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B646" s="5"/>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B647" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B647" s="6"/>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B648" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B648" s="5"/>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
@@ -9189,9 +9067,7 @@
       <c r="A651" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B651" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B651" s="6"/>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
@@ -9209,9 +9085,7 @@
       <c r="A654" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B654" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B654" s="5"/>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
@@ -9236,7 +9110,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -9262,7 +9136,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -9270,7 +9144,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -9278,7 +9152,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -9292,7 +9166,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -9300,7 +9174,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -9308,7 +9182,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -9316,7 +9190,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -9324,7 +9198,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -9338,7 +9212,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -9364,7 +9238,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -9372,7 +9246,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -9380,7 +9254,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -9388,7 +9262,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -9408,7 +9282,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -9422,16 +9296,14 @@
         <v>683</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1349</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B685" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B685" s="6"/>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
@@ -9444,16 +9316,14 @@
         <v>686</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B688" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B688" s="5"/>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
@@ -9465,9 +9335,7 @@
       <c r="A690" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B690" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B690" s="5"/>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
@@ -9480,7 +9348,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -9493,17 +9361,13 @@
       <c r="A694" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B694" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B694" s="5"/>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B695" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B695" s="6"/>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
@@ -9521,17 +9385,13 @@
       <c r="A698" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B698" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B698" s="5"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B699" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B699" s="6"/>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
@@ -9550,7 +9410,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -9570,7 +9430,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -9578,7 +9438,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1350</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -9598,7 +9458,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -9606,7 +9466,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -9614,16 +9474,14 @@
         <v>710</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B712" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B712" s="5"/>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
@@ -9635,9 +9493,7 @@
       <c r="A714" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B714" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B714" s="5"/>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
@@ -9656,7 +9512,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -9669,17 +9525,13 @@
       <c r="A719" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B719" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B719" s="6"/>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B720" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B720" s="5"/>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
@@ -9723,9 +9575,7 @@
       <c r="A727" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B727" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B727" s="6"/>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
@@ -9740,40 +9590,32 @@
         <v>728</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B730" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B730" s="5"/>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B731" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B731" s="6"/>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B732" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B732" s="5"/>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B733" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B733" s="6"/>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
@@ -9786,23 +9628,21 @@
         <v>734</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B736" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B736" s="5"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -9821,9 +9661,7 @@
       <c r="A740" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B740" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B740" s="5"/>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
@@ -9865,9 +9703,7 @@
       <c r="A747" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B747" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B747" s="6"/>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
@@ -9901,17 +9737,13 @@
       <c r="A752" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B752" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B752" s="5"/>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B753" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B753" s="6"/>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
@@ -9923,40 +9755,34 @@
       <c r="A755" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B755" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B755" s="6"/>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B756" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B756" s="5"/>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>756</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B758" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B758" s="5"/>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -9971,16 +9797,14 @@
       <c r="A761" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B761" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B761" s="6"/>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>761</v>
       </c>
       <c r="B762" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -9993,17 +9817,13 @@
       <c r="A764" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B764" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B764" s="5"/>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B765" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B765" s="6"/>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
@@ -10022,32 +9842,26 @@
         <v>767</v>
       </c>
       <c r="B768" s="5" t="s">
-        <v>1349</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B769" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B769" s="6"/>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B770" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B770" s="5"/>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B771" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B771" s="6"/>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
@@ -10059,17 +9873,13 @@
       <c r="A773" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B773" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B773" s="6"/>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B774" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B774" s="5"/>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
@@ -10081,24 +9891,20 @@
       <c r="A776" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B776" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B776" s="5"/>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B777" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B777" s="6"/>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>777</v>
       </c>
       <c r="B778" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -10112,16 +9918,14 @@
         <v>779</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B781" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B781" s="6"/>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
@@ -10133,16 +9937,14 @@
       <c r="A783" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B783" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B783" s="6"/>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>783</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -10150,23 +9952,21 @@
         <v>784</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B786" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B786" s="5"/>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>786</v>
       </c>
       <c r="B787" s="6" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -10189,9 +9989,7 @@
       <c r="A790" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B790" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B790" s="5"/>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
@@ -10206,16 +10004,14 @@
         <v>791</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B793" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B793" s="6"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
@@ -10254,7 +10050,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -10262,7 +10058,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="5" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -10270,7 +10066,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="6" t="s">
-        <v>1321</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -10308,7 +10104,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -10336,7 +10132,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -10350,7 +10146,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="6" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -10364,7 +10160,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="6" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -10372,7 +10168,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="5" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -10380,7 +10176,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -10388,7 +10184,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="5" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -10402,7 +10198,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="5" t="s">
-        <v>1362</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -10424,7 +10220,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>1316</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -10459,16 +10255,14 @@
       <c r="A828" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B828" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B828" s="5"/>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>828</v>
       </c>
       <c r="B829" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -10496,7 +10290,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -10510,7 +10304,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -10523,9 +10317,7 @@
       <c r="A837" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="B837" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B837" s="6"/>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
@@ -10612,16 +10404,14 @@
         <v>850</v>
       </c>
       <c r="B851" s="6" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B852" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B852" s="5"/>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
@@ -10690,7 +10480,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="6" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -10704,7 +10494,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="6" t="s">
-        <v>1316</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -10736,7 +10526,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -10749,9 +10539,7 @@
       <c r="A872" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B872" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B872" s="5"/>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
@@ -10782,7 +10570,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
@@ -10796,7 +10584,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -10810,7 +10598,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -10823,16 +10611,14 @@
       <c r="A883" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B883" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B883" s="6"/>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>883</v>
       </c>
       <c r="B884" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
@@ -10864,7 +10650,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="6" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
@@ -10880,7 +10666,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -10894,7 +10680,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -10902,7 +10688,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
@@ -10915,9 +10701,7 @@
       <c r="A896" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B896" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B896" s="5"/>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
@@ -10950,7 +10734,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -10969,9 +10753,7 @@
       <c r="A904" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B904" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B904" s="5"/>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
@@ -10996,7 +10778,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -11010,7 +10792,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
@@ -11036,7 +10818,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="5" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -11044,7 +10826,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="6" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -11058,7 +10840,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -11084,7 +10866,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="6" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
@@ -11109,9 +10891,7 @@
       <c r="A925" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B925" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B925" s="6"/>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
@@ -11141,9 +10921,7 @@
       <c r="A930" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B930" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B930" s="5"/>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="3" t="s">
@@ -11168,16 +10946,14 @@
         <v>933</v>
       </c>
       <c r="B934" s="5" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="B935" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B935" s="6"/>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
@@ -11226,7 +11002,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
@@ -11234,7 +11010,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
@@ -11255,25 +11031,19 @@
       <c r="A947" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B947" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B947" s="6"/>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B948" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B948" s="5"/>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="B949" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B949" s="6"/>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
@@ -11291,7 +11061,9 @@
       <c r="A952" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B952" s="5"/>
+      <c r="B952" s="5" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="3" t="s">
@@ -11304,7 +11076,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="5" t="s">
-        <v>1325</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -11324,7 +11096,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -11337,17 +11109,13 @@
       <c r="A959" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B959" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B959" s="6"/>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B960" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B960" s="5"/>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
@@ -11373,32 +11141,28 @@
       <c r="A964" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B964" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B964" s="5"/>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="3" t="s">
         <v>964</v>
       </c>
       <c r="B965" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B966" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B966" s="5"/>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
         <v>966</v>
       </c>
       <c r="B967" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
@@ -11411,24 +11175,20 @@
       <c r="A969" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B969" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B969" s="6"/>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B970" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B970" s="5"/>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="3" t="s">
         <v>970</v>
       </c>
       <c r="B971" s="6" t="s">
-        <v>1365</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -11436,23 +11196,21 @@
         <v>971</v>
       </c>
       <c r="B972" s="5" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="B973" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B973" s="6"/>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>973</v>
       </c>
       <c r="B974" s="5" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -11460,7 +11218,7 @@
         <v>974</v>
       </c>
       <c r="B975" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -11474,32 +11232,28 @@
         <v>976</v>
       </c>
       <c r="B977" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B978" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B978" s="5"/>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" s="3" t="s">
         <v>978</v>
       </c>
       <c r="B979" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B980" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B980" s="5"/>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" s="3" t="s">
@@ -11511,9 +11265,7 @@
       <c r="A982" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B982" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B982" s="5"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" s="3" t="s">
@@ -11525,16 +11277,14 @@
       <c r="A984" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B984" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B984" s="5"/>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" s="3" t="s">
         <v>984</v>
       </c>
       <c r="B985" s="6" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -11577,9 +11327,7 @@
       <c r="A992" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B992" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B992" s="5"/>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" s="3" t="s">
@@ -11597,9 +11345,7 @@
       <c r="A995" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="B995" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B995" s="6"/>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
@@ -11635,9 +11381,7 @@
       <c r="A1001" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="B1001" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1001" s="6"/>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
@@ -11649,9 +11393,7 @@
       <c r="A1003" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B1003" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1003" s="6"/>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
@@ -11711,9 +11453,7 @@
       <c r="A1013" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="B1013" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1013" s="6"/>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
@@ -11725,9 +11465,7 @@
       <c r="A1015" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="B1015" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1015" s="6"/>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
@@ -11763,9 +11501,7 @@
       <c r="A1021" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="B1021" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1021" s="6"/>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
@@ -11813,9 +11549,7 @@
       <c r="A1029" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="B1029" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1029" s="6"/>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
@@ -11881,16 +11615,14 @@
       <c r="A1040" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B1040" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1040" s="5"/>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
         <v>1040</v>
       </c>
       <c r="B1041" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
@@ -11942,16 +11674,14 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B1050" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1050" s="5"/>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1051" s="3" t="s">
@@ -11964,7 +11694,7 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
@@ -12019,9 +11749,7 @@
       <c r="A1061" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B1061" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1061" s="6"/>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
@@ -12046,7 +11774,7 @@
         <v>1064</v>
       </c>
       <c r="B1065" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
@@ -12083,9 +11811,7 @@
       <c r="A1071" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B1071" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1071" s="6"/>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
@@ -12109,9 +11835,7 @@
       <c r="A1075" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B1075" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1075" s="6"/>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
@@ -12125,9 +11849,7 @@
       <c r="A1077" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="B1077" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1077" s="6"/>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
@@ -12163,9 +11885,7 @@
       <c r="A1083" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="B1083" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1083" s="6"/>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
@@ -12178,7 +11898,7 @@
         <v>1084</v>
       </c>
       <c r="B1085" s="6" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
@@ -12186,7 +11906,7 @@
         <v>1085</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
@@ -12206,7 +11926,7 @@
         <v>1088</v>
       </c>
       <c r="B1089" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
@@ -12214,7 +11934,7 @@
         <v>1089</v>
       </c>
       <c r="B1090" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
@@ -12240,7 +11960,7 @@
         <v>1093</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
@@ -12296,7 +12016,7 @@
         <v>1102</v>
       </c>
       <c r="B1103" s="6" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
@@ -12358,24 +12078,20 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1114" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="B1114" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1114" s="5"/>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="B1115" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1115" s="6"/>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1116" s="2" t="s">
@@ -12417,9 +12133,7 @@
       <c r="A1122" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="B1122" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1122" s="5"/>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1123" s="3" t="s">
@@ -12431,9 +12145,7 @@
       <c r="A1124" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="B1124" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1124" s="5"/>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1125" s="3" t="s">
@@ -12457,9 +12169,7 @@
       <c r="A1128" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B1128" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1128" s="5"/>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" s="3" t="s">
@@ -12525,9 +12235,7 @@
       <c r="A1139" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B1139" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1139" s="6"/>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1140" s="2" t="s">
@@ -12545,17 +12253,13 @@
       <c r="A1142" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B1142" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1142" s="5"/>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1143" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="B1143" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1143" s="6"/>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1144" s="2" t="s">
@@ -12591,17 +12295,13 @@
       <c r="A1149" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="B1149" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1149" s="6"/>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1150" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B1150" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1150" s="5"/>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1151" s="3" t="s">
@@ -12614,7 +12314,7 @@
         <v>1151</v>
       </c>
       <c r="B1152" s="5" t="s">
-        <v>1370</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
@@ -12622,7 +12322,7 @@
         <v>1152</v>
       </c>
       <c r="B1153" s="6" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
@@ -12642,7 +12342,7 @@
         <v>1155</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -12667,9 +12367,7 @@
       <c r="A1160" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B1160" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1160" s="5"/>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1161" s="3" t="s">
@@ -12725,17 +12423,13 @@
       <c r="A1169" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B1169" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1169" s="6"/>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="B1170" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1170" s="5"/>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" s="3" t="s">
@@ -12765,9 +12459,7 @@
       <c r="A1175" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B1175" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1175" s="6"/>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1176" s="2" t="s">
@@ -12785,9 +12477,7 @@
       <c r="A1178" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="B1178" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1178" s="5"/>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" s="3" t="s">
@@ -12800,23 +12490,21 @@
         <v>1179</v>
       </c>
       <c r="B1180" s="5" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="B1181" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1181" s="6"/>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" s="2" t="s">
         <v>1181</v>
       </c>
       <c r="B1182" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
@@ -12831,9 +12519,7 @@
       <c r="A1184" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="B1184" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1184" s="5"/>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" s="3" t="s">
@@ -12859,57 +12545,45 @@
       <c r="A1188" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B1188" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1188" s="5"/>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="B1189" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1189" s="6"/>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B1190" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1190" s="5"/>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="B1191" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1191" s="6"/>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" s="2" t="s">
         <v>1191</v>
       </c>
       <c r="B1192" s="5" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B1193" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1193" s="6"/>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="B1194" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1194" s="5"/>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" s="3" t="s">
@@ -12924,16 +12598,14 @@
         <v>1195</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="B1197" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1197" s="6"/>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" s="2" t="s">
@@ -12961,16 +12633,14 @@
       <c r="A1201" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B1201" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1201" s="6"/>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1202" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="B1202" s="5" t="s">
-        <v>1350</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
@@ -12978,7 +12648,7 @@
         <v>1202</v>
       </c>
       <c r="B1203" s="6" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
@@ -12992,63 +12662,53 @@
         <v>1204</v>
       </c>
       <c r="B1205" s="6" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1206" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B1206" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1206" s="5"/>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1207" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B1207" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1207" s="6"/>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1208" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="B1208" s="5" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1209" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="B1209" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1209" s="6"/>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1210" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="B1210" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1210" s="5"/>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B1211" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1211" s="6"/>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" s="2" t="s">
         <v>1211</v>
       </c>
       <c r="B1212" s="5" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
@@ -13056,16 +12716,14 @@
         <v>1212</v>
       </c>
       <c r="B1213" s="6" t="s">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="B1214" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1214" s="5"/>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" s="3" t="s">
@@ -13077,48 +12735,38 @@
       <c r="A1216" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="B1216" s="5" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1216" s="5"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1217" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B1217" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1217" s="6"/>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="B1218" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1218" s="5"/>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1219" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B1219" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1219" s="6"/>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="B1220" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1220" s="5"/>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" s="3" t="s">
         <v>1220</v>
       </c>
       <c r="B1221" s="6" t="s">
-        <v>1336</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
@@ -13126,7 +12774,7 @@
         <v>1221</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
@@ -13139,72 +12787,60 @@
       <c r="A1224" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="B1224" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1224" s="5"/>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" s="3" t="s">
         <v>1224</v>
       </c>
       <c r="B1225" s="6" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="B1226" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1226" s="5"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B1227" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1227" s="6"/>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" s="2" t="s">
         <v>1227</v>
       </c>
       <c r="B1228" s="5" t="s">
-        <v>1375</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1229" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="B1229" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1229" s="6"/>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1230" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="B1230" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1230" s="5"/>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1231" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="B1231" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1231" s="6"/>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1232" s="2" t="s">
         <v>1231</v>
       </c>
       <c r="B1232" s="5" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
@@ -13212,7 +12848,7 @@
         <v>1232</v>
       </c>
       <c r="B1233" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
@@ -13220,7 +12856,7 @@
         <v>1233</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
@@ -13228,7 +12864,7 @@
         <v>1234</v>
       </c>
       <c r="B1235" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
@@ -13236,7 +12872,7 @@
         <v>1235</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
@@ -13244,7 +12880,7 @@
         <v>1236</v>
       </c>
       <c r="B1237" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
@@ -13252,7 +12888,7 @@
         <v>1237</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
@@ -13260,7 +12896,7 @@
         <v>1238</v>
       </c>
       <c r="B1239" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
@@ -13268,7 +12904,7 @@
         <v>1239</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
@@ -13276,7 +12912,7 @@
         <v>1240</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
@@ -13284,7 +12920,7 @@
         <v>1241</v>
       </c>
       <c r="B1242" s="5" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
@@ -13292,7 +12928,7 @@
         <v>1242</v>
       </c>
       <c r="B1243" s="6" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
@@ -13300,7 +12936,7 @@
         <v>1243</v>
       </c>
       <c r="B1244" s="5" t="s">
-        <v>1379</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
@@ -13308,7 +12944,7 @@
         <v>1244</v>
       </c>
       <c r="B1245" s="6" t="s">
-        <v>1380</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
@@ -13316,7 +12952,7 @@
         <v>1245</v>
       </c>
       <c r="B1246" s="5" t="s">
-        <v>1381</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
@@ -13324,7 +12960,7 @@
         <v>1246</v>
       </c>
       <c r="B1247" s="6" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
@@ -13380,7 +13016,7 @@
         <v>1255</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>1382</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
@@ -13399,9 +13035,7 @@
       <c r="A1259" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B1259" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1259" s="6"/>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" s="2" t="s">
@@ -13425,9 +13059,7 @@
       <c r="A1263" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="B1263" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1263" s="6"/>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" s="2" t="s">
@@ -13463,9 +13095,7 @@
       <c r="A1269" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="B1269" s="6" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B1269" s="6"/>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1270" s="2" t="s">
@@ -13490,7 +13120,7 @@
         <v>1272</v>
       </c>
       <c r="B1273" s="6" t="s">
-        <v>1382</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
@@ -13503,17 +13133,13 @@
       <c r="A1275" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="B1275" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1275" s="6"/>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1276" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B1276" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1276" s="5"/>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1277" s="3" t="s">
@@ -13537,9 +13163,7 @@
       <c r="A1280" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B1280" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1280" s="5"/>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281" s="3" t="s">
@@ -13551,9 +13175,7 @@
       <c r="A1282" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="B1282" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1282" s="5"/>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283" s="3" t="s">
@@ -13578,39 +13200,33 @@
         <v>1285</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="B1287" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1287" s="6"/>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1288" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B1288" s="5" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1288" s="5"/>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="B1289" s="6" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B1289" s="6"/>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290" s="2" t="s">
         <v>1289</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
@@ -13618,23 +13234,21 @@
         <v>1290</v>
       </c>
       <c r="B1291" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="B1292" s="5" t="s">
-        <v>1387</v>
-      </c>
+      <c r="B1292" s="5"/>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293" s="3" t="s">
         <v>1292</v>
       </c>
       <c r="B1293" s="6" t="s">
-        <v>1383</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
@@ -13642,16 +13256,14 @@
         <v>1293</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>1384</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="B1295" s="7" t="s">
-        <v>1387</v>
-      </c>
+      <c r="B1295" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13660,30 +13272,55 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7540843a-a232-4063-912c-367249275f67" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="124f404e-53eb-4ae5-a7f6-5c41857bb4db">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_dlc_DocId xmlns="7540843a-a232-4063-912c-367249275f67">HXV3MQXXKA6E-418275069-666312</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="7540843a-a232-4063-912c-367249275f67">
-      <Url>https://oncohost.sharepoint.com/sites/Shares/_layouts/15/DocIdRedir.aspx?ID=HXV3MQXXKA6E-418275069-666312</Url>
-      <Description>HXV3MQXXKA6E-418275069-666312</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027808532246A4F408FA18B65285B99FE" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c630f0d63e3d8af73555d23591ff4017">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7540843a-a232-4063-912c-367249275f67" xmlns:ns3="124f404e-53eb-4ae5-a7f6-5c41857bb4db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="334e9f9490200caf52ff939ff9d029a5" ns2:_="" ns3:_="">
     <xsd:import namespace="7540843a-a232-4063-912c-367249275f67"/>
@@ -13957,76 +13594,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7540843a-a232-4063-912c-367249275f67" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="124f404e-53eb-4ae5-a7f6-5c41857bb4db">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_dlc_DocId xmlns="7540843a-a232-4063-912c-367249275f67">HXV3MQXXKA6E-418275069-666312</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="7540843a-a232-4063-912c-367249275f67">
+      <Url>https://oncohost.sharepoint.com/sites/Shares/_layouts/15/DocIdRedir.aspx?ID=HXV3MQXXKA6E-418275069-666312</Url>
+      <Description>HXV3MQXXKA6E-418275069-666312</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8088C5B8-21B8-4B70-BE5D-C16F6BF6796D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D337EBB-E68F-4A6A-9994-2E27DB5DF268}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FEAF28-954E-483E-AADA-F272DB064D3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7540843a-a232-4063-912c-367249275f67"/>
-    <ds:schemaRef ds:uri="124f404e-53eb-4ae5-a7f6-5c41857bb4db"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0327BD2B-EBDE-42A3-8AE3-1D5979E17ABC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14045,10 +13646,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FEAF28-954E-483E-AADA-F272DB064D3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7540843a-a232-4063-912c-367249275f67"/>
+    <ds:schemaRef ds:uri="124f404e-53eb-4ae5-a7f6-5c41857bb4db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D337EBB-E68F-4A6A-9994-2E27DB5DF268}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8088C5B8-21B8-4B70-BE5D-C16F6BF6796D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>